--- a/biology/Zoologie/Carpocoris/Carpocoris.xlsx
+++ b/biology/Zoologie/Carpocoris/Carpocoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpocoris est un genre d'insectes hémiptères du sous-ordre des hétéroptères (punaises) de la famille des Pentatomidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Sous-genres et espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (15 décembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 décembre 2019) :
 sous-genre Carpocoris Kolenati, 1846
 sous-genre Manciurocoris Tamanini, 1959
 Espèce non classée dans un sous-genre : 
@@ -546,7 +560,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Toutes sont du sous-genre Carpocoris
 Carpocoris (Carpocoris) coreanus Distant, 1899
